--- a/DwellScanningEyeTrack/img_training/Week8/map5.xlsx
+++ b/DwellScanningEyeTrack/img_training/Week8/map5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Final - mixed blocks\Block 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Take 2\Final - mixed blocks\Block 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1006,19 +1006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1103,22 +1100,22 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -1139,10 +1136,10 @@
         <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
         <v>24</v>
@@ -1168,7 +1165,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
@@ -1180,16 +1177,16 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -1204,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U3" t="s">
         <v>24</v>
@@ -1230,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
@@ -1239,25 +1236,25 @@
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>24</v>
@@ -1266,10 +1263,10 @@
         <v>23</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1310,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
         <v>23</v>
@@ -1331,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="U5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1348,43 +1345,43 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
         <v>24</v>
@@ -1410,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -1422,13 +1419,13 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
@@ -1437,22 +1434,22 @@
         <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U7" t="s">
         <v>24</v>
@@ -1478,7 +1475,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
@@ -1490,10 +1487,10 @@
         <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
@@ -1502,10 +1499,10 @@
         <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
         <v>23</v>
@@ -1517,7 +1514,7 @@
         <v>23</v>
       </c>
       <c r="U8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1540,13 +1537,13 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
         <v>23</v>
@@ -1558,7 +1555,7 @@
         <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
@@ -1570,13 +1567,13 @@
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U9" t="s">
         <v>24</v>
@@ -1599,16 +1596,16 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
         <v>23</v>
@@ -1635,7 +1632,7 @@
         <v>24</v>
       </c>
       <c r="S10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T10" t="s">
         <v>23</v>
@@ -1664,34 +1661,34 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" t="s">
         <v>23</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R11" t="s">
         <v>23</v>
@@ -1703,7 +1700,7 @@
         <v>23</v>
       </c>
       <c r="U11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1720,40 +1717,40 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
         <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R12" t="s">
         <v>23</v>
@@ -1762,7 +1759,7 @@
         <v>24</v>
       </c>
       <c r="T12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U12" t="s">
         <v>24</v>
@@ -1785,40 +1782,40 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
         <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" t="s">
         <v>24</v>
@@ -1847,10 +1844,10 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -1865,19 +1862,19 @@
         <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R14" t="s">
         <v>24</v>
@@ -1886,10 +1883,10 @@
         <v>24</v>
       </c>
       <c r="T14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1909,19 +1906,19 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
         <v>24</v>
@@ -1930,16 +1927,16 @@
         <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
         <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R15" t="s">
         <v>24</v>
@@ -1948,7 +1945,7 @@
         <v>23</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U15" t="s">
         <v>23</v>
@@ -1971,7 +1968,7 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
@@ -1980,13 +1977,13 @@
         <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s">
         <v>24</v>
@@ -2004,10 +2001,10 @@
         <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T16" t="s">
         <v>23</v>
@@ -2030,7 +2027,7 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -2039,7 +2036,7 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -2048,28 +2045,28 @@
         <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s">
         <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R17" t="s">
         <v>23</v>
       </c>
       <c r="S17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T17" t="s">
         <v>23</v>
@@ -2095,49 +2092,49 @@
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O18" t="s">
         <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2157,16 +2154,16 @@
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
         <v>24</v>
@@ -2178,7 +2175,7 @@
         <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
         <v>23</v>
@@ -2187,7 +2184,7 @@
         <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R19" t="s">
         <v>23</v>
@@ -2196,10 +2193,10 @@
         <v>24</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2216,52 +2213,52 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20" t="s">
         <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T20" t="s">
         <v>23</v>
       </c>
       <c r="U20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2278,7 +2275,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -2287,22 +2284,22 @@
         <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O21" t="s">
         <v>23</v>
@@ -2317,13 +2314,13 @@
         <v>23</v>
       </c>
       <c r="S21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2340,7 +2337,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
         <v>23</v>
@@ -2349,10 +2346,10 @@
         <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
         <v>24</v>
@@ -2364,7 +2361,7 @@
         <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O22" t="s">
         <v>23</v>
@@ -2376,7 +2373,7 @@
         <v>24</v>
       </c>
       <c r="R22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>23</v>
@@ -2385,7 +2382,7 @@
         <v>24</v>
       </c>
       <c r="U22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2405,7 +2402,7 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
@@ -2414,7 +2411,7 @@
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
         <v>23</v>
@@ -2435,16 +2432,16 @@
         <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U23" t="s">
         <v>23</v>
@@ -2467,7 +2464,7 @@
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
         <v>24</v>
@@ -2479,7 +2476,7 @@
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
@@ -2488,28 +2485,28 @@
         <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R24" t="s">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2532,19 +2529,19 @@
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M25" t="s">
         <v>23</v>
@@ -2553,16 +2550,16 @@
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="s">
         <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S25" t="s">
         <v>23</v>
@@ -2571,7 +2568,7 @@
         <v>23</v>
       </c>
       <c r="U25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2588,10 +2585,10 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
         <v>23</v>
@@ -2600,13 +2597,13 @@
         <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
         <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
         <v>23</v>
@@ -2618,13 +2615,13 @@
         <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="s">
         <v>24</v>
       </c>
       <c r="R26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S26" t="s">
         <v>24</v>
@@ -2653,43 +2650,43 @@
         <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
         <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P27" t="s">
         <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T27" t="s">
         <v>23</v>
@@ -2712,19 +2709,19 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
         <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
         <v>24</v>
@@ -2736,7 +2733,7 @@
         <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O28" t="s">
         <v>23</v>
@@ -2745,7 +2742,7 @@
         <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R28" t="s">
         <v>23</v>
@@ -2757,7 +2754,7 @@
         <v>24</v>
       </c>
       <c r="U28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2792,7 +2789,7 @@
         <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M29" t="s">
         <v>24</v>
@@ -2801,7 +2798,7 @@
         <v>24</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P29" t="s">
         <v>23</v>
@@ -2813,10 +2810,10 @@
         <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U29" t="s">
         <v>24</v>
@@ -2842,19 +2839,19 @@
         <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
         <v>23</v>
@@ -2898,25 +2895,25 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
         <v>24</v>
@@ -2925,16 +2922,16 @@
         <v>24</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
         <v>23</v>
       </c>
       <c r="Q31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S31" t="s">
         <v>23</v>
